--- a/data/pca/factorExposure/factorExposure_2016-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0113418130968243</v>
+        <v>0.01517981723515328</v>
       </c>
       <c r="C2">
-        <v>-0.0576911299083589</v>
+        <v>0.04035406680668528</v>
       </c>
       <c r="D2">
-        <v>-0.04041546439823206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07337901027533064</v>
+      </c>
+      <c r="E2">
+        <v>-0.1116874264372248</v>
+      </c>
+      <c r="F2">
+        <v>0.06503929661208407</v>
+      </c>
+      <c r="G2">
+        <v>0.03162287686225461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04184369839393988</v>
+        <v>0.02590853798306635</v>
       </c>
       <c r="C3">
-        <v>-0.1261548731472892</v>
+        <v>0.06922309177523091</v>
       </c>
       <c r="D3">
-        <v>-0.07790440057475688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07898898698475028</v>
+      </c>
+      <c r="E3">
+        <v>-0.07637800038652287</v>
+      </c>
+      <c r="F3">
+        <v>-0.04759835454310579</v>
+      </c>
+      <c r="G3">
+        <v>0.008584131960670621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06310205710449755</v>
+        <v>0.06159855519049946</v>
       </c>
       <c r="C4">
-        <v>-0.06768524642300631</v>
+        <v>0.06620974372989751</v>
       </c>
       <c r="D4">
-        <v>-0.0337776337701152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06878934218642423</v>
+      </c>
+      <c r="E4">
+        <v>-0.1080660731021974</v>
+      </c>
+      <c r="F4">
+        <v>0.009077770848558169</v>
+      </c>
+      <c r="G4">
+        <v>0.06574428330418568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04140557296746451</v>
+        <v>0.03836878381718992</v>
       </c>
       <c r="C6">
-        <v>-0.03693521792635916</v>
+        <v>0.02773023333500994</v>
       </c>
       <c r="D6">
-        <v>-0.0323874791505711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07254745405563334</v>
+      </c>
+      <c r="E6">
+        <v>-0.09483650809045295</v>
+      </c>
+      <c r="F6">
+        <v>0.004760683452721851</v>
+      </c>
+      <c r="G6">
+        <v>0.05009151642024866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0285235027593328</v>
+        <v>0.02246490314181762</v>
       </c>
       <c r="C7">
-        <v>-0.0393467065918315</v>
+        <v>0.0361696352779728</v>
       </c>
       <c r="D7">
-        <v>0.002461507758544171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04911019737861982</v>
+      </c>
+      <c r="E7">
+        <v>-0.07972085304088361</v>
+      </c>
+      <c r="F7">
+        <v>0.04199161474022185</v>
+      </c>
+      <c r="G7">
+        <v>0.1042722922995878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008305305779738923</v>
+        <v>0.007578458726394503</v>
       </c>
       <c r="C8">
-        <v>-0.04180876382968521</v>
+        <v>0.03558501551890521</v>
       </c>
       <c r="D8">
-        <v>-0.02791653530941463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04390620758763858</v>
+      </c>
+      <c r="E8">
+        <v>-0.06344771392438298</v>
+      </c>
+      <c r="F8">
+        <v>0.004958342938926158</v>
+      </c>
+      <c r="G8">
+        <v>0.03193529647037949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03881679125266704</v>
+        <v>0.04163911015868757</v>
       </c>
       <c r="C9">
-        <v>-0.04674953850248829</v>
+        <v>0.05056483373234277</v>
       </c>
       <c r="D9">
-        <v>-0.01883667201974032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05011369253244214</v>
+      </c>
+      <c r="E9">
+        <v>-0.08315525019769739</v>
+      </c>
+      <c r="F9">
+        <v>0.03053820230128714</v>
+      </c>
+      <c r="G9">
+        <v>0.07568968869446847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07193302088958529</v>
+        <v>0.09969882169665574</v>
       </c>
       <c r="C10">
-        <v>0.1894875718949002</v>
+        <v>-0.2019158798907374</v>
       </c>
       <c r="D10">
-        <v>-0.002786706102614611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007868956872203622</v>
+      </c>
+      <c r="E10">
+        <v>-0.04019016706578197</v>
+      </c>
+      <c r="F10">
+        <v>0.008543637341419852</v>
+      </c>
+      <c r="G10">
+        <v>0.03753805463703892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04385184598017156</v>
+        <v>0.0381707475778208</v>
       </c>
       <c r="C11">
-        <v>-0.05023027556279452</v>
+        <v>0.04715075624486199</v>
       </c>
       <c r="D11">
-        <v>-0.01548305752918057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03507679095670858</v>
+      </c>
+      <c r="E11">
+        <v>-0.03495884074314141</v>
+      </c>
+      <c r="F11">
+        <v>0.02141135201204111</v>
+      </c>
+      <c r="G11">
+        <v>0.07189803690804088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04585104957738591</v>
+        <v>0.03968615124198881</v>
       </c>
       <c r="C12">
-        <v>-0.04598184072324532</v>
+        <v>0.04572854511257227</v>
       </c>
       <c r="D12">
-        <v>-0.001599645106657566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02976421764724107</v>
+      </c>
+      <c r="E12">
+        <v>-0.04571946311879127</v>
+      </c>
+      <c r="F12">
+        <v>0.02198646235200885</v>
+      </c>
+      <c r="G12">
+        <v>0.06618072401707137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01695200515355392</v>
+        <v>0.01534872147550003</v>
       </c>
       <c r="C13">
-        <v>-0.05283461567898057</v>
+        <v>0.04219365181510301</v>
       </c>
       <c r="D13">
-        <v>-0.009481073912068132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05881340782705103</v>
+      </c>
+      <c r="E13">
+        <v>-0.1153548621349268</v>
+      </c>
+      <c r="F13">
+        <v>0.02936034218729801</v>
+      </c>
+      <c r="G13">
+        <v>0.09435452905775693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01132597913297267</v>
+        <v>0.007263186451306135</v>
       </c>
       <c r="C14">
-        <v>-0.03366650239258328</v>
+        <v>0.02949501319919435</v>
       </c>
       <c r="D14">
-        <v>0.001115652014156025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03364028224452875</v>
+      </c>
+      <c r="E14">
+        <v>-0.07040633605284774</v>
+      </c>
+      <c r="F14">
+        <v>0.05190239756739009</v>
+      </c>
+      <c r="G14">
+        <v>0.08401868819465177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.000194377589822429</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006640886046634656</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0104345149392921</v>
+      </c>
+      <c r="E15">
+        <v>-0.00853558251473171</v>
+      </c>
+      <c r="F15">
+        <v>0.004985871513314277</v>
+      </c>
+      <c r="G15">
+        <v>0.007498180061477539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04149470520595114</v>
+        <v>0.03637824509096652</v>
       </c>
       <c r="C16">
-        <v>-0.04732589743808127</v>
+        <v>0.04422050845812151</v>
       </c>
       <c r="D16">
-        <v>-0.00368988016345756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02994006610104584</v>
+      </c>
+      <c r="E16">
+        <v>-0.04963237539904104</v>
+      </c>
+      <c r="F16">
+        <v>0.03463476490303914</v>
+      </c>
+      <c r="G16">
+        <v>0.06037056331019087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02826080642714464</v>
+        <v>0.0194344475981549</v>
       </c>
       <c r="C19">
-        <v>-0.06240155886900225</v>
+        <v>0.04557993824659839</v>
       </c>
       <c r="D19">
-        <v>-0.08746983799373444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0998331394606089</v>
+      </c>
+      <c r="E19">
+        <v>-0.1163479798542433</v>
+      </c>
+      <c r="F19">
+        <v>0.0385091839608512</v>
+      </c>
+      <c r="G19">
+        <v>0.0272573430179976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02086548044796569</v>
+        <v>0.01662958379196613</v>
       </c>
       <c r="C20">
-        <v>-0.04825349152307317</v>
+        <v>0.03967591637542461</v>
       </c>
       <c r="D20">
-        <v>-0.009959928759706927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04372855352894123</v>
+      </c>
+      <c r="E20">
+        <v>-0.09003442538961927</v>
+      </c>
+      <c r="F20">
+        <v>0.03216793133814562</v>
+      </c>
+      <c r="G20">
+        <v>0.06325959874062768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01598126728770157</v>
+        <v>0.01429224756920412</v>
       </c>
       <c r="C21">
-        <v>-0.0555056891560354</v>
+        <v>0.04434900658706038</v>
       </c>
       <c r="D21">
-        <v>-0.03426254916900588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0720566086035528</v>
+      </c>
+      <c r="E21">
+        <v>-0.1356250828334382</v>
+      </c>
+      <c r="F21">
+        <v>0.06049830207672414</v>
+      </c>
+      <c r="G21">
+        <v>0.09590531100386676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0003138387878373268</v>
+        <v>0.004465078285847454</v>
       </c>
       <c r="C22">
-        <v>-0.0132458902968442</v>
+        <v>0.03023851923132114</v>
       </c>
       <c r="D22">
-        <v>-0.0271191897468912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06216915561253535</v>
+      </c>
+      <c r="E22">
+        <v>-0.06710417098053663</v>
+      </c>
+      <c r="F22">
+        <v>-0.03804998231754996</v>
+      </c>
+      <c r="G22">
+        <v>0.04132060632614502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0003078662438900733</v>
+        <v>0.00456452195684762</v>
       </c>
       <c r="C23">
-        <v>-0.01324325111781049</v>
+        <v>0.03024257242020301</v>
       </c>
       <c r="D23">
-        <v>-0.02704476983352853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06141198980951291</v>
+      </c>
+      <c r="E23">
+        <v>-0.06727929501820729</v>
+      </c>
+      <c r="F23">
+        <v>-0.03815295677130533</v>
+      </c>
+      <c r="G23">
+        <v>0.04141705328110747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03876199770328954</v>
+        <v>0.03748458757449053</v>
       </c>
       <c r="C24">
-        <v>-0.04822801682623553</v>
+        <v>0.0523390043111477</v>
       </c>
       <c r="D24">
-        <v>-0.009084458953039484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03130414625196196</v>
+      </c>
+      <c r="E24">
+        <v>-0.05345874866884389</v>
+      </c>
+      <c r="F24">
+        <v>0.03416853198202314</v>
+      </c>
+      <c r="G24">
+        <v>0.07114847517057429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04967299365139371</v>
+        <v>0.04460159131427005</v>
       </c>
       <c r="C25">
-        <v>-0.05760004121055077</v>
+        <v>0.05508793550139206</v>
       </c>
       <c r="D25">
-        <v>0.0007601140851669939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02770290509403797</v>
+      </c>
+      <c r="E25">
+        <v>-0.04590046882673449</v>
+      </c>
+      <c r="F25">
+        <v>0.02289640227299879</v>
+      </c>
+      <c r="G25">
+        <v>0.08153468773218109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0194675207299575</v>
+        <v>0.01775322219149039</v>
       </c>
       <c r="C26">
-        <v>-0.01518306395292349</v>
+        <v>0.01620149922967628</v>
       </c>
       <c r="D26">
-        <v>-0.01053338022737274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03298531007227312</v>
+      </c>
+      <c r="E26">
+        <v>-0.05966424792666539</v>
+      </c>
+      <c r="F26">
+        <v>0.03894468291830079</v>
+      </c>
+      <c r="G26">
+        <v>0.05010224241554049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08959454692973494</v>
+        <v>0.1363276544646351</v>
       </c>
       <c r="C28">
-        <v>0.2598169838336838</v>
+        <v>-0.2609854942165305</v>
       </c>
       <c r="D28">
-        <v>0.002052200198135462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02314856508210256</v>
+      </c>
+      <c r="E28">
+        <v>-0.06193289393328279</v>
+      </c>
+      <c r="F28">
+        <v>0.01242984009263923</v>
+      </c>
+      <c r="G28">
+        <v>0.05167785943864136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009818189965084937</v>
+        <v>0.007823873484063265</v>
       </c>
       <c r="C29">
-        <v>-0.02996395096260936</v>
+        <v>0.0275791177480675</v>
       </c>
       <c r="D29">
-        <v>0.007791928323449276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02574026400986422</v>
+      </c>
+      <c r="E29">
+        <v>-0.06816472512571886</v>
+      </c>
+      <c r="F29">
+        <v>0.04298518560556001</v>
+      </c>
+      <c r="G29">
+        <v>0.08843867293512728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04761362141135503</v>
+        <v>0.04599261846836451</v>
       </c>
       <c r="C30">
-        <v>-0.05140865034120256</v>
+        <v>0.05727007460013877</v>
       </c>
       <c r="D30">
-        <v>-0.08229509588264991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1132500018349604</v>
+      </c>
+      <c r="E30">
+        <v>-0.09043387955833118</v>
+      </c>
+      <c r="F30">
+        <v>0.03989931698686072</v>
+      </c>
+      <c r="G30">
+        <v>0.05537485789131882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06350947294477668</v>
+        <v>0.06109147293118879</v>
       </c>
       <c r="C31">
-        <v>-0.04432971972282714</v>
+        <v>0.06006595143551884</v>
       </c>
       <c r="D31">
-        <v>0.03953815297054147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.008266127606826637</v>
+      </c>
+      <c r="E31">
+        <v>-0.0807264026090185</v>
+      </c>
+      <c r="F31">
+        <v>-0.0002219422866089931</v>
+      </c>
+      <c r="G31">
+        <v>0.06968628989704033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006863417659728737</v>
+        <v>0.01110108986509041</v>
       </c>
       <c r="C32">
-        <v>-0.03867146944552778</v>
+        <v>0.034548081769312</v>
       </c>
       <c r="D32">
-        <v>-0.05789857239934621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06402340307651298</v>
+      </c>
+      <c r="E32">
+        <v>-0.06356805809466376</v>
+      </c>
+      <c r="F32">
+        <v>0.04798711920303497</v>
+      </c>
+      <c r="G32">
+        <v>0.06818428421719071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03563014249281841</v>
+        <v>0.02911469222379367</v>
       </c>
       <c r="C33">
-        <v>-0.05817419127682195</v>
+        <v>0.05195251212948312</v>
       </c>
       <c r="D33">
-        <v>-0.04200674202387353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07888941783210245</v>
+      </c>
+      <c r="E33">
+        <v>-0.0971318008821587</v>
+      </c>
+      <c r="F33">
+        <v>0.03541846232672686</v>
+      </c>
+      <c r="G33">
+        <v>0.1016716886688079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04446578824226579</v>
+        <v>0.04071965975440443</v>
       </c>
       <c r="C34">
-        <v>-0.06301386880651004</v>
+        <v>0.06208688524946165</v>
       </c>
       <c r="D34">
-        <v>-0.02021133281075597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03848172389731635</v>
+      </c>
+      <c r="E34">
+        <v>-0.03182791811379243</v>
+      </c>
+      <c r="F34">
+        <v>0.03318953100336509</v>
+      </c>
+      <c r="G34">
+        <v>0.07714134440670418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.232908950001097e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-7.470285067988786e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-7.746091043916074e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0001331386738852271</v>
+      </c>
+      <c r="F35">
+        <v>0.0001073962514799589</v>
+      </c>
+      <c r="G35">
+        <v>-5.872873477995677e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01927751034799347</v>
+        <v>0.01644173161263362</v>
       </c>
       <c r="C36">
-        <v>-0.01591763594176025</v>
+        <v>0.01303470989891236</v>
       </c>
       <c r="D36">
-        <v>-0.001859852893458654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03185019722606978</v>
+      </c>
+      <c r="E36">
+        <v>-0.06809188679457819</v>
+      </c>
+      <c r="F36">
+        <v>0.02972349561983955</v>
+      </c>
+      <c r="G36">
+        <v>0.06714391238110262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02988101755242522</v>
+        <v>0.02367276466501127</v>
       </c>
       <c r="C38">
-        <v>-0.0326558043103739</v>
+        <v>0.02480697883973675</v>
       </c>
       <c r="D38">
-        <v>0.01530687846068372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02486044247725784</v>
+      </c>
+      <c r="E38">
+        <v>-0.06216581371906592</v>
+      </c>
+      <c r="F38">
+        <v>0.02195359243708341</v>
+      </c>
+      <c r="G38">
+        <v>0.04221674177321359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.049457713439859</v>
+        <v>0.04311832075269675</v>
       </c>
       <c r="C39">
-        <v>-0.05898848454434243</v>
+        <v>0.06152233022230318</v>
       </c>
       <c r="D39">
-        <v>-0.02240857832931735</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05845368874008808</v>
+      </c>
+      <c r="E39">
+        <v>-0.06384225292223755</v>
+      </c>
+      <c r="F39">
+        <v>0.05391131142288949</v>
+      </c>
+      <c r="G39">
+        <v>0.06758687837115854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0136040772742754</v>
+        <v>0.01560170721347027</v>
       </c>
       <c r="C40">
-        <v>-0.05306370048924535</v>
+        <v>0.03953503769040326</v>
       </c>
       <c r="D40">
-        <v>-0.01172346552765961</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03998133628597964</v>
+      </c>
+      <c r="E40">
+        <v>-0.1030176177289431</v>
+      </c>
+      <c r="F40">
+        <v>0.01109256390837017</v>
+      </c>
+      <c r="G40">
+        <v>0.09342835740960242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02477434581093254</v>
+        <v>0.02092649143578129</v>
       </c>
       <c r="C41">
-        <v>-0.01381183403451357</v>
+        <v>0.009718677151117371</v>
       </c>
       <c r="D41">
-        <v>-0.001524779553677847</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02184967827618581</v>
+      </c>
+      <c r="E41">
+        <v>-0.06929631039304893</v>
+      </c>
+      <c r="F41">
+        <v>0.02535105285214885</v>
+      </c>
+      <c r="G41">
+        <v>0.0526997894329216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04702532718580951</v>
+        <v>0.03281709901034286</v>
       </c>
       <c r="C43">
-        <v>-0.03377538591824781</v>
+        <v>0.02435178802289961</v>
       </c>
       <c r="D43">
-        <v>-0.02127886992305042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05140782759112682</v>
+      </c>
+      <c r="E43">
+        <v>-0.08320145364179793</v>
+      </c>
+      <c r="F43">
+        <v>0.01101062077977564</v>
+      </c>
+      <c r="G43">
+        <v>0.07311126988709829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01918143798164332</v>
+        <v>0.01955346168533131</v>
       </c>
       <c r="C44">
-        <v>-0.06957268814820797</v>
+        <v>0.04884829619453494</v>
       </c>
       <c r="D44">
-        <v>0.0009391498215675896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04060840253749773</v>
+      </c>
+      <c r="E44">
+        <v>-0.09994875480474159</v>
+      </c>
+      <c r="F44">
+        <v>0.04119277955018696</v>
+      </c>
+      <c r="G44">
+        <v>0.05306084483604975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01403425840183255</v>
+        <v>0.01303372292572915</v>
       </c>
       <c r="C46">
-        <v>-0.02494030975358531</v>
+        <v>0.02830094789459712</v>
       </c>
       <c r="D46">
-        <v>0.01052423934251697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02400467441913886</v>
+      </c>
+      <c r="E46">
+        <v>-0.08047311663205801</v>
+      </c>
+      <c r="F46">
+        <v>0.05120857125987884</v>
+      </c>
+      <c r="G46">
+        <v>0.08224681604830987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0918041247360022</v>
+        <v>0.09396327454560399</v>
       </c>
       <c r="C47">
-        <v>-0.065090797041204</v>
+        <v>0.07802973579674931</v>
       </c>
       <c r="D47">
-        <v>0.04694873623443457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01809525119173552</v>
+      </c>
+      <c r="E47">
+        <v>-0.07100396271527856</v>
+      </c>
+      <c r="F47">
+        <v>0.007350158646659707</v>
+      </c>
+      <c r="G47">
+        <v>0.07535858757302806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02071325834153863</v>
+        <v>0.01904750605555313</v>
       </c>
       <c r="C48">
-        <v>-0.01207873459439966</v>
+        <v>0.01444884649219143</v>
       </c>
       <c r="D48">
-        <v>0.01352871743112624</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01948146400984079</v>
+      </c>
+      <c r="E48">
+        <v>-0.08584471489820567</v>
+      </c>
+      <c r="F48">
+        <v>0.03933024068248303</v>
+      </c>
+      <c r="G48">
+        <v>0.07159326601853717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0862473259520186</v>
+        <v>0.07355830304839889</v>
       </c>
       <c r="C50">
-        <v>-0.08088905784586538</v>
+        <v>0.0736217269063822</v>
       </c>
       <c r="D50">
-        <v>0.04357295821552257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0006722609434963347</v>
+      </c>
+      <c r="E50">
+        <v>-0.08420615101163099</v>
+      </c>
+      <c r="F50">
+        <v>-0.02739663593942101</v>
+      </c>
+      <c r="G50">
+        <v>0.07493617241023917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01510897313484043</v>
+        <v>0.01146003879257489</v>
       </c>
       <c r="C51">
-        <v>-0.04882139360776641</v>
+        <v>0.03106656369786348</v>
       </c>
       <c r="D51">
-        <v>-0.04444089811794234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06462269012024674</v>
+      </c>
+      <c r="E51">
+        <v>-0.06739216756434319</v>
+      </c>
+      <c r="F51">
+        <v>0.04438308347471011</v>
+      </c>
+      <c r="G51">
+        <v>0.05816251561146874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08440337007658988</v>
+        <v>0.09882954120355987</v>
       </c>
       <c r="C53">
-        <v>-0.07719953510358955</v>
+        <v>0.08417229698554027</v>
       </c>
       <c r="D53">
-        <v>0.06868739390495822</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05804440391777748</v>
+      </c>
+      <c r="E53">
+        <v>-0.07947352427731433</v>
+      </c>
+      <c r="F53">
+        <v>0.009305566386596978</v>
+      </c>
+      <c r="G53">
+        <v>0.07427619306463387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03845897025235652</v>
+        <v>0.0313436543413118</v>
       </c>
       <c r="C54">
-        <v>-0.03158781208119106</v>
+        <v>0.03024274923913145</v>
       </c>
       <c r="D54">
-        <v>-0.002153100028643235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03348146557988577</v>
+      </c>
+      <c r="E54">
+        <v>-0.07084943837734187</v>
+      </c>
+      <c r="F54">
+        <v>0.04603178882388572</v>
+      </c>
+      <c r="G54">
+        <v>0.08872754072526644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08051574831732246</v>
+        <v>0.0908704953648322</v>
       </c>
       <c r="C55">
-        <v>-0.0519190126764176</v>
+        <v>0.06596987734712612</v>
       </c>
       <c r="D55">
-        <v>0.07164235027714479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05805709103072255</v>
+      </c>
+      <c r="E55">
+        <v>-0.05435594060178237</v>
+      </c>
+      <c r="F55">
+        <v>-0.008190138079873415</v>
+      </c>
+      <c r="G55">
+        <v>0.05062475458969311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1538028793770728</v>
+        <v>0.1562821735017498</v>
       </c>
       <c r="C56">
-        <v>-0.08060635812710154</v>
+        <v>0.09950164091918576</v>
       </c>
       <c r="D56">
-        <v>0.06490861475313622</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05209193901681608</v>
+      </c>
+      <c r="E56">
+        <v>-0.0397284603466436</v>
+      </c>
+      <c r="F56">
+        <v>-0.0111988303099663</v>
+      </c>
+      <c r="G56">
+        <v>0.02076132918690055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05541187428342185</v>
+        <v>0.03677922057715558</v>
       </c>
       <c r="C58">
-        <v>-0.02859226939784412</v>
+        <v>0.02774362764408212</v>
       </c>
       <c r="D58">
-        <v>-0.4442928047402577</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4017165813605543</v>
+      </c>
+      <c r="E58">
+        <v>-0.4658842108490803</v>
+      </c>
+      <c r="F58">
+        <v>-0.3652369073296434</v>
+      </c>
+      <c r="G58">
+        <v>-0.5988104242476151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1235882846643485</v>
+        <v>0.1401398436717353</v>
       </c>
       <c r="C59">
-        <v>0.2072630089295428</v>
+        <v>-0.1931422945984833</v>
       </c>
       <c r="D59">
-        <v>-0.03038426937352416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03317583586291657</v>
+      </c>
+      <c r="E59">
+        <v>-0.0302518180083226</v>
+      </c>
+      <c r="F59">
+        <v>0.02844742634921119</v>
+      </c>
+      <c r="G59">
+        <v>-0.005992993230330132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2930800976537722</v>
+        <v>0.2668102113019207</v>
       </c>
       <c r="C60">
-        <v>-0.1069772424848524</v>
+        <v>0.09747027637204693</v>
       </c>
       <c r="D60">
-        <v>-0.2314520873608516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.231689068444963</v>
+      </c>
+      <c r="E60">
+        <v>0.2523167337832502</v>
+      </c>
+      <c r="F60">
+        <v>-0.09254481153024942</v>
+      </c>
+      <c r="G60">
+        <v>0.03732369741833369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04747488778187756</v>
+        <v>0.0445383978256171</v>
       </c>
       <c r="C61">
-        <v>-0.05688858193824226</v>
+        <v>0.05634241344476048</v>
       </c>
       <c r="D61">
-        <v>-0.01854100828474544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04781544498072805</v>
+      </c>
+      <c r="E61">
+        <v>-0.06046920006151939</v>
+      </c>
+      <c r="F61">
+        <v>0.03409161403980938</v>
+      </c>
+      <c r="G61">
+        <v>0.07982648590788721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01885661668527934</v>
+        <v>0.01838899432555219</v>
       </c>
       <c r="C63">
-        <v>-0.03373289041033029</v>
+        <v>0.030306208896374</v>
       </c>
       <c r="D63">
-        <v>0.01701004546078218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02263543473958748</v>
+      </c>
+      <c r="E63">
+        <v>-0.0773895765236657</v>
+      </c>
+      <c r="F63">
+        <v>0.01433642295836376</v>
+      </c>
+      <c r="G63">
+        <v>0.07051073071907217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0540372182855191</v>
+        <v>0.05865133154890578</v>
       </c>
       <c r="C64">
-        <v>-0.04847073684334287</v>
+        <v>0.05853869141522244</v>
       </c>
       <c r="D64">
-        <v>-0.007423880686288716</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01501321297462875</v>
+      </c>
+      <c r="E64">
+        <v>-0.04999385658339271</v>
+      </c>
+      <c r="F64">
+        <v>0.03997386734217977</v>
+      </c>
+      <c r="G64">
+        <v>0.06138785055292902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07848220567621085</v>
+        <v>0.0643209227287624</v>
       </c>
       <c r="C65">
-        <v>-0.02673667776705518</v>
+        <v>0.02625804069658125</v>
       </c>
       <c r="D65">
-        <v>-0.05952552398360148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09197608050246159</v>
+      </c>
+      <c r="E65">
+        <v>-0.05439001798575421</v>
+      </c>
+      <c r="F65">
+        <v>-0.0147003134876283</v>
+      </c>
+      <c r="G65">
+        <v>0.003974898488584701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06253615591250415</v>
+        <v>0.0546326620224955</v>
       </c>
       <c r="C66">
-        <v>-0.07934562209776055</v>
+        <v>0.07742430885962363</v>
       </c>
       <c r="D66">
-        <v>-0.04186206719273727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08202414153048787</v>
+      </c>
+      <c r="E66">
+        <v>-0.07537458515667687</v>
+      </c>
+      <c r="F66">
+        <v>0.04026777375164849</v>
+      </c>
+      <c r="G66">
+        <v>0.07813761308264859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04993983843968786</v>
+        <v>0.04349077956685903</v>
       </c>
       <c r="C67">
-        <v>-0.03242888287059943</v>
+        <v>0.02877266256197621</v>
       </c>
       <c r="D67">
-        <v>0.02436534851523842</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005624578089122595</v>
+      </c>
+      <c r="E67">
+        <v>-0.03840824509132171</v>
+      </c>
+      <c r="F67">
+        <v>0.01300969627745718</v>
+      </c>
+      <c r="G67">
+        <v>0.03426978229825797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1240037145407778</v>
+        <v>0.1469946730372104</v>
       </c>
       <c r="C68">
-        <v>0.2821730608347853</v>
+        <v>-0.2439486934034754</v>
       </c>
       <c r="D68">
-        <v>0.004470036687385429</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009611997750154653</v>
+      </c>
+      <c r="E68">
+        <v>-0.04848777001993066</v>
+      </c>
+      <c r="F68">
+        <v>-0.001081269432546843</v>
+      </c>
+      <c r="G68">
+        <v>0.02143853819448656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09347413898360311</v>
+        <v>0.0896960931882643</v>
       </c>
       <c r="C69">
-        <v>-0.07157201152202984</v>
+        <v>0.08928397135130518</v>
       </c>
       <c r="D69">
-        <v>0.04653056074661286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007100696137794081</v>
+      </c>
+      <c r="E69">
+        <v>-0.06607986266420866</v>
+      </c>
+      <c r="F69">
+        <v>0.03903654291878721</v>
+      </c>
+      <c r="G69">
+        <v>0.07813654552290872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1144228925325489</v>
+        <v>0.1420708877988242</v>
       </c>
       <c r="C71">
-        <v>0.2597347012608887</v>
+        <v>-0.2448348388259035</v>
       </c>
       <c r="D71">
-        <v>-0.01800387214052014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01170277032727981</v>
+      </c>
+      <c r="E71">
+        <v>-0.06983818798943847</v>
+      </c>
+      <c r="F71">
+        <v>-0.01231811746711176</v>
+      </c>
+      <c r="G71">
+        <v>0.04780638935484843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1009475613995667</v>
+        <v>0.1062583288514854</v>
       </c>
       <c r="C72">
-        <v>-0.04177554084184571</v>
+        <v>0.04772202745024457</v>
       </c>
       <c r="D72">
-        <v>-0.001696616669078441</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03971792281715968</v>
+      </c>
+      <c r="E72">
+        <v>-0.02819686280429742</v>
+      </c>
+      <c r="F72">
+        <v>0.01033268497196422</v>
+      </c>
+      <c r="G72">
+        <v>0.1010712826197268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3791047841374366</v>
+        <v>0.3237471129488043</v>
       </c>
       <c r="C73">
-        <v>-0.05826429363494345</v>
+        <v>0.06992976899147761</v>
       </c>
       <c r="D73">
-        <v>-0.5096211777284613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4729081246702377</v>
+      </c>
+      <c r="E73">
+        <v>0.5285249648904324</v>
+      </c>
+      <c r="F73">
+        <v>-0.1871129466999671</v>
+      </c>
+      <c r="G73">
+        <v>0.03448525883406518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1057912512893163</v>
+        <v>0.1105588418226858</v>
       </c>
       <c r="C74">
-        <v>-0.09372449253101883</v>
+        <v>0.09209000171527476</v>
       </c>
       <c r="D74">
-        <v>0.04973723855565854</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04466503302606763</v>
+      </c>
+      <c r="E74">
+        <v>-0.0669688577085425</v>
+      </c>
+      <c r="F74">
+        <v>-0.02364078454787117</v>
+      </c>
+      <c r="G74">
+        <v>0.03901805696350798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2577952353873552</v>
+        <v>0.2599522592623871</v>
       </c>
       <c r="C75">
-        <v>-0.08426371978790891</v>
+        <v>0.1195965973343531</v>
       </c>
       <c r="D75">
-        <v>0.1523321996030037</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1516721789098455</v>
+      </c>
+      <c r="E75">
+        <v>-0.01952847339120554</v>
+      </c>
+      <c r="F75">
+        <v>-0.03965078961093269</v>
+      </c>
+      <c r="G75">
+        <v>-0.05620665826426316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174985508269474</v>
+        <v>0.1301934305825261</v>
       </c>
       <c r="C76">
-        <v>-0.07906821507953397</v>
+        <v>0.0897537028236581</v>
       </c>
       <c r="D76">
-        <v>0.07841401678721462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07386087706824725</v>
+      </c>
+      <c r="E76">
+        <v>-0.08904592156350388</v>
+      </c>
+      <c r="F76">
+        <v>0.002009267735758742</v>
+      </c>
+      <c r="G76">
+        <v>0.02596365937175363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08466969724717639</v>
+        <v>0.06878331628903804</v>
       </c>
       <c r="C77">
-        <v>-0.03838718586646724</v>
+        <v>0.05692622427964335</v>
       </c>
       <c r="D77">
-        <v>-0.05576893237702578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07332742360386925</v>
+      </c>
+      <c r="E77">
+        <v>-0.1077405905447664</v>
+      </c>
+      <c r="F77">
+        <v>0.1896178268200878</v>
+      </c>
+      <c r="G77">
+        <v>-0.1244364200598552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04997048418286986</v>
+        <v>0.04925186442248314</v>
       </c>
       <c r="C78">
-        <v>-0.03962641201318495</v>
+        <v>0.05098459967071394</v>
       </c>
       <c r="D78">
-        <v>-0.04041078489357371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07348065817113797</v>
+      </c>
+      <c r="E78">
+        <v>-0.0697571200209081</v>
+      </c>
+      <c r="F78">
+        <v>0.03855893841527476</v>
+      </c>
+      <c r="G78">
+        <v>0.06655717146328333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0004509163583516612</v>
+        <v>0.03526604003610515</v>
       </c>
       <c r="C79">
-        <v>-0.001243268916379006</v>
+        <v>0.04971341506098319</v>
       </c>
       <c r="D79">
-        <v>-0.005162027273544351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08217684280758478</v>
+      </c>
+      <c r="E79">
+        <v>-0.07737120686357957</v>
+      </c>
+      <c r="F79">
+        <v>-0.03569258971685289</v>
+      </c>
+      <c r="G79">
+        <v>0.02538420859533995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0395522682669232</v>
+        <v>0.03031889387922369</v>
       </c>
       <c r="C80">
-        <v>-0.05099911312662003</v>
+        <v>0.05073053114285075</v>
       </c>
       <c r="D80">
-        <v>-0.03475038542319055</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04559136519402369</v>
+      </c>
+      <c r="E80">
+        <v>-0.01852138484938535</v>
+      </c>
+      <c r="F80">
+        <v>0.04823486934261459</v>
+      </c>
+      <c r="G80">
+        <v>0.001370798653065454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1457940993862303</v>
+        <v>0.1430648914368604</v>
       </c>
       <c r="C81">
-        <v>-0.06767917292396808</v>
+        <v>0.08875654987056376</v>
       </c>
       <c r="D81">
-        <v>0.1181619396597017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1179899021897625</v>
+      </c>
+      <c r="E81">
+        <v>-0.0677277265777419</v>
+      </c>
+      <c r="F81">
+        <v>-0.02400950792449272</v>
+      </c>
+      <c r="G81">
+        <v>-0.02452552047435535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2065808554986283</v>
+        <v>0.2344334561555441</v>
       </c>
       <c r="C82">
-        <v>-0.08886006064467671</v>
+        <v>0.1551576658194815</v>
       </c>
       <c r="D82">
-        <v>0.2051923801442669</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2501277077053177</v>
+      </c>
+      <c r="E82">
+        <v>0.03677814848341456</v>
+      </c>
+      <c r="F82">
+        <v>0.05222381303839418</v>
+      </c>
+      <c r="G82">
+        <v>0.1192741125176126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04564760864787984</v>
+        <v>0.03088783313966538</v>
       </c>
       <c r="C83">
-        <v>-0.0337325850716112</v>
+        <v>0.04618529256773121</v>
       </c>
       <c r="D83">
-        <v>-0.04355993263813312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03625741881091424</v>
+      </c>
+      <c r="E83">
+        <v>-0.01946487247354182</v>
+      </c>
+      <c r="F83">
+        <v>0.02921065159380564</v>
+      </c>
+      <c r="G83">
+        <v>0.0007062944849335754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005410210465476415</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001984496156696549</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001283110093496772</v>
+      </c>
+      <c r="E84">
+        <v>-0.006174703920845738</v>
+      </c>
+      <c r="F84">
+        <v>-0.002415472812337169</v>
+      </c>
+      <c r="G84">
+        <v>-0.002301405173988434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203819803787397</v>
+        <v>0.2042694384078552</v>
       </c>
       <c r="C85">
-        <v>-0.09471086607652644</v>
+        <v>0.1108127177841097</v>
       </c>
       <c r="D85">
-        <v>0.1664477543115543</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1323674948768497</v>
+      </c>
+      <c r="E85">
+        <v>0.01215697719988844</v>
+      </c>
+      <c r="F85">
+        <v>-0.09669773038172062</v>
+      </c>
+      <c r="G85">
+        <v>-0.003455203400063223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01127479406975079</v>
+        <v>0.01449254886418379</v>
       </c>
       <c r="C86">
-        <v>-0.03032260360126545</v>
+        <v>0.01766731107135333</v>
       </c>
       <c r="D86">
-        <v>-0.04316250348705931</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07144613105134688</v>
+      </c>
+      <c r="E86">
+        <v>-0.08465796235008605</v>
+      </c>
+      <c r="F86">
+        <v>0.05722105049698453</v>
+      </c>
+      <c r="G86">
+        <v>0.07707909676924352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0324975630184537</v>
+        <v>0.03161614789720879</v>
       </c>
       <c r="C87">
-        <v>-0.003828149958223307</v>
+        <v>0.01426379734022304</v>
       </c>
       <c r="D87">
-        <v>-0.07678183261810115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09824073770728857</v>
+      </c>
+      <c r="E87">
+        <v>-0.1341177075928879</v>
+      </c>
+      <c r="F87">
+        <v>0.06568495793583926</v>
+      </c>
+      <c r="G87">
+        <v>-0.008663289694904581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.109775563030849</v>
+        <v>0.09334658514106083</v>
       </c>
       <c r="C88">
-        <v>-0.08621442059612666</v>
+        <v>0.06929682932820216</v>
       </c>
       <c r="D88">
-        <v>0.01995153323935903</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01491649753010557</v>
+      </c>
+      <c r="E88">
+        <v>-0.04959463106956077</v>
+      </c>
+      <c r="F88">
+        <v>0.03700264608022983</v>
+      </c>
+      <c r="G88">
+        <v>0.04426736684553483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1764496304296854</v>
+        <v>0.2128196671562685</v>
       </c>
       <c r="C89">
-        <v>0.3818276380594031</v>
+        <v>-0.3841253895052715</v>
       </c>
       <c r="D89">
-        <v>0.02593811927303209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007801704257363067</v>
+      </c>
+      <c r="E89">
+        <v>-0.08126654009889851</v>
+      </c>
+      <c r="F89">
+        <v>0.08019119910965035</v>
+      </c>
+      <c r="G89">
+        <v>0.004635677100976192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1690395297627944</v>
+        <v>0.1931652872443898</v>
       </c>
       <c r="C90">
-        <v>0.3334310064625572</v>
+        <v>-0.3107828447439111</v>
       </c>
       <c r="D90">
-        <v>0.03107733162980449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0110526195442883</v>
+      </c>
+      <c r="E90">
+        <v>-0.06168015527068529</v>
+      </c>
+      <c r="F90">
+        <v>0.01429166514677073</v>
+      </c>
+      <c r="G90">
+        <v>0.01202861067541602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1910743253119065</v>
+        <v>0.1878222739182681</v>
       </c>
       <c r="C91">
-        <v>-0.1192885282942155</v>
+        <v>0.1392835785148837</v>
       </c>
       <c r="D91">
-        <v>0.1398699261412527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1262279501912069</v>
+      </c>
+      <c r="E91">
+        <v>-0.05836598214020792</v>
+      </c>
+      <c r="F91">
+        <v>-0.01412944246758061</v>
+      </c>
+      <c r="G91">
+        <v>-0.0172895929890415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1633625549124518</v>
+        <v>0.1802508609940528</v>
       </c>
       <c r="C92">
-        <v>0.2975142890327102</v>
+        <v>-0.2995660426169172</v>
       </c>
       <c r="D92">
-        <v>0.02089775032784159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009443308225832094</v>
+      </c>
+      <c r="E92">
+        <v>-0.06606237520183844</v>
+      </c>
+      <c r="F92">
+        <v>0.04842145454857273</v>
+      </c>
+      <c r="G92">
+        <v>0.032226596754366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.188376882826271</v>
+        <v>0.2121529940755927</v>
       </c>
       <c r="C93">
-        <v>0.3360409490972751</v>
+        <v>-0.3205043733475592</v>
       </c>
       <c r="D93">
-        <v>0.04023586423548573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01617297508766832</v>
+      </c>
+      <c r="E93">
+        <v>-0.04569852483093596</v>
+      </c>
+      <c r="F93">
+        <v>-0.01331669917174865</v>
+      </c>
+      <c r="G93">
+        <v>0.03417470814107788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3549611631728726</v>
+        <v>0.3490797346184489</v>
       </c>
       <c r="C94">
-        <v>-0.1246141221375626</v>
+        <v>0.1731926021381021</v>
       </c>
       <c r="D94">
-        <v>0.4269005182944278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4083350131377562</v>
+      </c>
+      <c r="E94">
+        <v>0.02957319838658079</v>
+      </c>
+      <c r="F94">
+        <v>-0.05359159278155423</v>
+      </c>
+      <c r="G94">
+        <v>-0.4358324309663484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1197272253250529</v>
+        <v>0.08852916438336807</v>
       </c>
       <c r="C95">
-        <v>-0.03932558543202949</v>
+        <v>0.05130609573034221</v>
       </c>
       <c r="D95">
-        <v>-0.2071400354936412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1917577363870518</v>
+      </c>
+      <c r="E95">
+        <v>0.1259880471909312</v>
+      </c>
+      <c r="F95">
+        <v>0.8209600203769707</v>
+      </c>
+      <c r="G95">
+        <v>-0.3789693078465695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1870394846213186</v>
+        <v>0.1848504377242397</v>
       </c>
       <c r="C98">
-        <v>-0.02790989688121566</v>
+        <v>0.04721122127826408</v>
       </c>
       <c r="D98">
-        <v>-0.1964823315788496</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1953711793218859</v>
+      </c>
+      <c r="E98">
+        <v>0.1559517915885462</v>
+      </c>
+      <c r="F98">
+        <v>-0.09618699521301946</v>
+      </c>
+      <c r="G98">
+        <v>0.06323114077564654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009590485242780125</v>
+        <v>0.00782336287145185</v>
       </c>
       <c r="C101">
-        <v>-0.02998344125345519</v>
+        <v>0.0271091295797709</v>
       </c>
       <c r="D101">
-        <v>0.007610590731530847</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02568437902144818</v>
+      </c>
+      <c r="E101">
+        <v>-0.06893886299409241</v>
+      </c>
+      <c r="F101">
+        <v>0.043703060304699</v>
+      </c>
+      <c r="G101">
+        <v>0.088302454733418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1218007155022154</v>
+        <v>0.1255180285353913</v>
       </c>
       <c r="C102">
-        <v>-0.06235184445570287</v>
+        <v>0.09706819424643132</v>
       </c>
       <c r="D102">
-        <v>0.05416030690805824</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06162557475963291</v>
+      </c>
+      <c r="E102">
+        <v>0.005121287191095997</v>
+      </c>
+      <c r="F102">
+        <v>0.02429034099361461</v>
+      </c>
+      <c r="G102">
+        <v>-0.0007035303766252537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
